--- a/дз субд 2.xlsx
+++ b/дз субд 2.xlsx
@@ -423,14 +423,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>226</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>104429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>29142</xdr:rowOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>1927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -474,58 +474,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>82207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>525402</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>29299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="37058257"/>
-          <a:ext cx="5516502" cy="2614092"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>323368</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>188098</xdr:rowOff>
@@ -544,7 +492,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -596,7 +544,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -648,7 +596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -657,58 +605,6 @@
         <a:xfrm>
           <a:off x="765151" y="6214499"/>
           <a:ext cx="3499119" cy="1724325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>116751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>556846</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>132563</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="776654" y="9810270"/>
-          <a:ext cx="5253404" cy="2492312"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,7 +648,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -804,7 +700,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -856,7 +752,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -865,6 +761,110 @@
         <a:xfrm>
           <a:off x="552450" y="22903720"/>
           <a:ext cx="5802348" cy="3424337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566411</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>394759</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>87978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="566411" y="9620249"/>
+          <a:ext cx="4693425" cy="2842902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>509130</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>156452</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152738</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>151910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="509130" y="37045416"/>
+          <a:ext cx="10053072" cy="4934851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1179,7 +1179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1187,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O232"/>
+  <dimension ref="A3:O242"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG215" sqref="AG215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,12 +1361,12 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1374,8 +1374,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59">
         <v>4</v>
       </c>
     </row>
@@ -1411,115 +1416,116 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214">
+    <row r="214" spans="1:2" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>9</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B224" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B217" s="7" t="s">
+    <row r="226" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C217" s="8"/>
-      <c r="D217" s="9"/>
-      <c r="F217" s="3"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B218" s="10" t="s">
+      <c r="C227" s="8"/>
+      <c r="D227" s="9"/>
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B228" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C218" s="11"/>
-      <c r="D218" s="12"/>
-      <c r="F218" s="3"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B219" s="10"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="12"/>
-      <c r="F219" s="3"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B220" s="10" t="s">
+      <c r="C228" s="11"/>
+      <c r="D228" s="12"/>
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B229" s="10"/>
+      <c r="C229" s="11"/>
+      <c r="D229" s="12"/>
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B230" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C220" s="11"/>
-      <c r="D220" s="12"/>
-      <c r="F220" s="3"/>
-      <c r="J220" s="4"/>
-    </row>
-    <row r="221" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="13" t="s">
+      <c r="C230" s="11"/>
+      <c r="D230" s="12"/>
+      <c r="F230" s="3"/>
+      <c r="J230" s="4"/>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C221" s="14"/>
-      <c r="D221" s="15"/>
-      <c r="F221" s="5"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="C231" s="14"/>
+      <c r="D231" s="15"/>
+      <c r="F231" s="5"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
         <v>10</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B234" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:7" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B228" s="7" t="s">
+    <row r="237" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B238" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C228" s="16"/>
-      <c r="D228" s="16"/>
-      <c r="E228" s="16"/>
-      <c r="F228" s="16"/>
-      <c r="G228" s="9"/>
-    </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B229" s="10" t="s">
+      <c r="C238" s="16"/>
+      <c r="D238" s="16"/>
+      <c r="E238" s="16"/>
+      <c r="F238" s="16"/>
+      <c r="G238" s="9"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B239" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C229" s="17"/>
-      <c r="D229" s="17"/>
-      <c r="E229" s="17"/>
-      <c r="F229" s="17"/>
-      <c r="G229" s="12"/>
-    </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B230" s="10" t="s">
+      <c r="C239" s="17"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B240" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C230" s="17"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="17"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="12"/>
-    </row>
-    <row r="231" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="18" t="s">
+      <c r="C240" s="17"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C231" s="19"/>
-      <c r="D231" s="19"/>
-      <c r="E231" s="19"/>
-      <c r="F231" s="19"/>
-      <c r="G231" s="20"/>
-    </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D232" s="2"/>
+      <c r="C241" s="19"/>
+      <c r="D241" s="19"/>
+      <c r="E241" s="19"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="20"/>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D242" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
